--- a/Dataproperty/DataDriven.xlsx
+++ b/Dataproperty/DataDriven.xlsx
@@ -12,7 +12,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>TC-ID</t>
   </si>
@@ -80,12 +80,16 @@
   </si>
   <si>
     <t>manju</t>
+  </si>
+  <si>
+    <t>Manjunatha S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G4" activeCellId="1" sqref="D5 G4"/>
@@ -424,8 +428,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -441,8 +445,9 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -477,14 +482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="6"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
